--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC3F4B3A-A072-4A95-9C62-D214CFAC7DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F52496D-172D-4571-B322-5A2D0323D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="412">
   <si>
     <t>index</t>
   </si>
@@ -107,27 +107,6 @@
     <t>Mlstr_harmo::algorithm</t>
   </si>
   <si>
-    <t>internal_comment</t>
-  </si>
-  <si>
-    <t>comment_question_for_cohort</t>
-  </si>
-  <si>
-    <t>validation_comment</t>
-  </si>
-  <si>
-    <t>response_from_cohort_step1</t>
-  </si>
-  <si>
-    <t>response_to_cohort_step1</t>
-  </si>
-  <si>
-    <t>response_from_cohort_step2</t>
-  </si>
-  <si>
-    <t>response_to_cohort_step2</t>
-  </si>
-  <si>
     <t>KSA</t>
   </si>
   <si>
@@ -192,15 +171,6 @@
   </si>
   <si>
     <t>format(as.Date(Date_of_participation, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t>What is the date format? (ex:dd/mm/yyy, mm-dd-yy, etc...)</t>
-  </si>
-  <si>
-    <t>dd/mm/yyy- but I have mixed formate which needs to standardize to dd/mm/yyy</t>
-  </si>
-  <si>
-    <t>thank you</t>
   </si>
   <si>
     <t>sdc_sex</t>
@@ -271,20 +241,6 @@
     <t>recode(0=0; 1=0; 2=1; 3=2; 4=3; 5=3; ELSE=NA)</t>
   </si>
   <si>
-    <t>Need to validate</t>
-  </si>
-  <si>
-    <t>Can you please validate the recoding for Education</t>
-  </si>
-  <si>
-    <t>0 (Elementary) = 0 (None or lower than high school) 
-1 (Intermediate) = 0 (None or lower than high school) 
-2 (Secondary) = 0 (None or lower than high school) high school 
-3 (Diploma) = 1 (High school qualifications) (A Diploma is a post-secondary qualification typically requiring two years of study after high school.) 
-4 (Undergraduate) = 2 (Further education qualifications) (A bachelor's degree) 
-5 (Graduate) = 3 (University degree and higher) ( masters or PhD )</t>
-  </si>
-  <si>
     <t>sdc_ethnicity</t>
   </si>
   <si>
@@ -307,12 +263,6 @@
   </si>
   <si>
     <t>paste</t>
-  </si>
-  <si>
-    <t>No variale available but could discuss with them since saudi arabia is not really a mixed country, probably all middle eastern but not presently in the ds</t>
-  </si>
-  <si>
-    <t>Only saudi national</t>
   </si>
   <si>
     <t>sdc_employment_status</t>
@@ -378,12 +328,6 @@
   </si>
   <si>
     <t>incompatible</t>
-  </si>
-  <si>
-    <t>Is 32 hours a week considered as full time in saudi arabia?</t>
-  </si>
-  <si>
-    <t>48 hours per week ( ref. https://www.hrsd.gov.sa/en/knowledge-centre/articles/312)</t>
   </si>
   <si>
     <t>sdc_work_hours</t>
@@ -464,9 +408,6 @@
     <t>recode(0=NA; 1=0; 2=0; 3=0; 4=0; 5=0; 6=0; 7=0; 8=1; ELSE=NA)</t>
   </si>
   <si>
-    <t>really not sure about how to recode this one</t>
-  </si>
-  <si>
     <t>sdc_married</t>
   </si>
   <si>
@@ -497,9 +438,6 @@
     <t>recode(1=NA; 2=1; 3=2; 4=2; ELSE=NA)</t>
   </si>
   <si>
-    <t>Need to confirm that single is recoded as NA</t>
-  </si>
-  <si>
     <t>sdc_relationship</t>
   </si>
   <si>
@@ -514,9 +452,6 @@
   </si>
   <si>
     <t>recode(1=1; 2=1; 3=0; 4=0; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Need to confirm the recoding</t>
   </si>
   <si>
     <t>sdc_location</t>
@@ -538,9 +473,6 @@
 4 West</t>
   </si>
   <si>
-    <t>Is every location of riyadh considered as urban? (North, South, East ans West)</t>
-  </si>
-  <si>
     <t>pm_height</t>
   </si>
   <si>
@@ -572,12 +504,6 @@
     <t>ifelse(is.na(Height), NA, 2)</t>
   </si>
   <si>
-    <t>Was the height measured by a professional or it was self-reported?</t>
-  </si>
-  <si>
-    <t>Yes, it was measured by a professional based on ProAPSS protocol (ref. https://pubmed.ncbi.nlm.nih.gov/38778331/)</t>
-  </si>
-  <si>
     <t>pm_weight</t>
   </si>
   <si>
@@ -593,9 +519,6 @@
     <t>Decimal Number</t>
   </si>
   <si>
-    <t>What is the weight unit?</t>
-  </si>
-  <si>
     <t>pm_weight_method</t>
   </si>
   <si>
@@ -605,9 +528,6 @@
     <t>ifelse(is.na(Weight), NA, 2)</t>
   </si>
   <si>
-    <t>Was the weight measured by a professional or it was self-reported?</t>
-  </si>
-  <si>
     <t>pm_bmi</t>
   </si>
   <si>
@@ -635,9 +555,6 @@
     <t>WC</t>
   </si>
   <si>
-    <t>What is the Waist circumference unit?</t>
-  </si>
-  <si>
     <t>pm_waist_circ_method</t>
   </si>
   <si>
@@ -645,9 +562,6 @@
   </si>
   <si>
     <t>ifelse(is.na(Waist_Circumference), NA, 2)</t>
-  </si>
-  <si>
-    <t>Was the Waist circumference measured by a professional or it was self-reported?</t>
   </si>
   <si>
     <t>pm_bodyfat_perc</t>
@@ -773,9 +687,6 @@
     <t>mmol/mol</t>
   </si>
   <si>
-    <t>The measured blood glucose is available but not Hba1c</t>
-  </si>
-  <si>
     <t>lab_chol_tot</t>
   </si>
   <si>
@@ -797,9 +708,6 @@
     <t>Cholestrol_Level/38.67</t>
   </si>
   <si>
-    <t>What is the unit of CHOL?</t>
-  </si>
-  <si>
     <t>lab_chol_hdl</t>
   </si>
   <si>
@@ -815,9 +723,6 @@
     <t>High_Density_Lipids/38.67</t>
   </si>
   <si>
-    <t>What is the unit of HDL-CHOL?</t>
-  </si>
-  <si>
     <t>lab_chol_ldl</t>
   </si>
   <si>
@@ -836,9 +741,6 @@
     <t>LDL CALC</t>
   </si>
   <si>
-    <t>What is the unit of LDL-CALC?</t>
-  </si>
-  <si>
     <t>lab_trigly</t>
   </si>
   <si>
@@ -852,9 +754,6 @@
   </si>
   <si>
     <t>Triglyciride/88.57</t>
-  </si>
-  <si>
-    <t>What is the unit of Triglyceride?</t>
   </si>
   <si>
     <t>lab_c_reac_pro</t>
@@ -892,9 +791,6 @@
 3 = Every day</t>
   </si>
   <si>
-    <t>fruit and vegetables are together</t>
-  </si>
-  <si>
     <t>nut_vegetable_quantity</t>
   </si>
   <si>
@@ -935,9 +831,6 @@
   </si>
   <si>
     <t>No alcohol consumption by law</t>
-  </si>
-  <si>
-    <t>No question available but alcohol is illegal in saudi arabia so most proably 0</t>
   </si>
   <si>
     <t>alc_alcohol_frequency</t>
@@ -1193,9 +1086,6 @@
     <t>Glucose lowering medication</t>
   </si>
   <si>
-    <t>There is a glucose control medication question but not directly diabetes, we considered it in MSN so we will consider it here</t>
-  </si>
-  <si>
     <t>cog_depression</t>
   </si>
   <si>
@@ -1206,9 +1096,6 @@
   </si>
   <si>
     <t>Mental health problems you sought help for</t>
-  </si>
-  <si>
-    <t>mental health problems not necessarely depression and not necessarely diagnosed</t>
   </si>
   <si>
     <t>cog_dep_cesd20</t>
@@ -1360,9 +1247,6 @@
   </si>
   <si>
     <t>recode(1=0; 2=1; 3=1; 4=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>There are some question on sleep difficulty in the sleep questionnaire but we need to check</t>
   </si>
   <si>
     <t>sed_beh_tv_week_all</t>
@@ -1654,9 +1538,6 @@
     <t>Sitting to read a book, magazine, or tablet/mobile content</t>
   </si>
   <si>
-    <t>categories does not fit</t>
-  </si>
-  <si>
     <t>sed_beh_total_sitting</t>
   </si>
   <si>
@@ -1664,22 +1545,6 @@
   </si>
   <si>
     <t>Overall time spent sitting per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sitting time only includes the following:
-Watching TV or videos (from mobile, tablet, etc.) while sitting 
-Playing video games or electronic games while sitting
-Sitting and listening to audio content (Quran, prayers, music, news, audiobooks, etc.) via radio or mobile/tablet
-Sitting and talking on the phone
-Doing office or computer work (emails, bills, shopping, etc.)
-Sitting to read a book, magazine, or tablet/mobile content
-Sitting while playing a musical instrument
-Sitting while doing artistic or handicraft work
-Driving or traveling in a car, bus, or train while sitting
-</t>
-  </si>
-  <si>
-    <t>in the GPAQ questionnaire you have the following question: How much time do you usually spend sitting or reclining on a typical day? Is it available in your dataset? If so, what is the variable name and the variable formatting</t>
   </si>
   <si>
     <t>sed_beh_total_sitting_cat</t>
@@ -1727,9 +1592,6 @@
   <si>
     <t>Work vigorous-intensity activity;
 Work moderate-intensity activity</t>
-  </si>
-  <si>
-    <t>We have the amount of time doing vigorous and moderate pa at work</t>
   </si>
   <si>
     <t>phy_sport_participation</t>
@@ -2172,15 +2034,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
-  <dimension ref="A1:AD84"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="69.28515625" customWidth="1"/>
+    <col min="23" max="23" width="94.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2250,3469 +2116,3289 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
       <c r="W2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="W3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="240" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
-      <c r="X7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="165" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="U10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="105" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
-      </c>
-      <c r="X13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
-      </c>
-      <c r="X14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="W15">
         <v>2</v>
       </c>
-      <c r="Y15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" t="s">
-        <v>37</v>
-      </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P21" t="s">
-        <v>37</v>
-      </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s">
         <v>153</v>
       </c>
-      <c r="J22" t="s">
-        <v>174</v>
-      </c>
-      <c r="T22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T23" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V23" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>190</v>
-      </c>
-      <c r="J25" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" t="s">
-        <v>192</v>
-      </c>
-      <c r="P25" t="s">
-        <v>37</v>
-      </c>
       <c r="Q25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" t="s">
-        <v>197</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>200</v>
-      </c>
-      <c r="J27" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" t="s">
-        <v>202</v>
-      </c>
-      <c r="P27" t="s">
-        <v>37</v>
-      </c>
       <c r="Q27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T28" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="Q29" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="T29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T31" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V31" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W31" t="s">
-        <v>101</v>
-      </c>
-      <c r="X31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+      <c r="P32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32" t="s">
-        <v>224</v>
-      </c>
-      <c r="K32" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" t="s">
-        <v>37</v>
-      </c>
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="T32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+      <c r="P33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" t="s">
-        <v>223</v>
-      </c>
-      <c r="J33" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" t="s">
-        <v>232</v>
-      </c>
-      <c r="P33" t="s">
-        <v>37</v>
-      </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T34" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U34" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V34" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" t="s">
-        <v>223</v>
-      </c>
-      <c r="J35" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" t="s">
-        <v>37</v>
-      </c>
       <c r="Q35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="T35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+      <c r="J36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
+        <v>214</v>
+      </c>
+      <c r="P36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J36" t="s">
-        <v>244</v>
-      </c>
-      <c r="K36" t="s">
-        <v>245</v>
-      </c>
-      <c r="P36" t="s">
-        <v>37</v>
-      </c>
       <c r="Q36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R36" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="T36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U36" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U37" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T38" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V38" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T39" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V39" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W39" t="s">
-        <v>101</v>
-      </c>
-      <c r="X39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T40" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U40" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V40" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T41" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U41" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V41" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W41" t="s">
-        <v>101</v>
-      </c>
-      <c r="X41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T42" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U42" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V42" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S43" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="T43" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U43" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V43" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W43" t="s">
-        <v>101</v>
-      </c>
-      <c r="X43" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S44" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="T44" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U44" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V44" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W44" t="s">
-        <v>101</v>
-      </c>
-      <c r="X44" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="J45" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="K45" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="T45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="J46" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="K46" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="T46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V46" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="K47" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="P47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="T47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D48" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="J48" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="T48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W48" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="315" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="225" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="S49" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="T49" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U49" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V49" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="S50" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="T50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U50" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V50" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J51" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="T51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U51" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T52" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U52" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V52" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K53" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="T53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E54" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T54" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U54" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V54" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J55" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="T55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U55" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V55" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W55" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="E56" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="K56" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="T56" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U56" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V56" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="T57" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V57" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W57" t="s">
-        <v>321</v>
-      </c>
-      <c r="X57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="E58" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J58" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="K58" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="T58" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U58" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V58" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W58" t="s">
-        <v>101</v>
-      </c>
-      <c r="X58" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T59" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U59" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V59" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="D60" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T60" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U60" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V60" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="D61" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T61" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U61" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V61" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T62" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U62" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V62" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="405" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="T63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U63" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V63" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="E64" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T64" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U64" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V64" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J65" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T65" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U65" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V65" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="210" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T66" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U66" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V66" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="E67" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="J67" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K67" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="Q67" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="T67" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U67" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V67" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W67" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="E68" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="J68" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K68" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="Q68" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="T68" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U68" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V68" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D69" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="E69" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="J69" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="T69" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U69" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V69" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W69" t="s">
-        <v>384</v>
-      </c>
-      <c r="X69" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D70" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="E70" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="S70" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="T70" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U70" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V70" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="210" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="E71" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="J71" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="S71" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="T71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U71" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V71" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="210" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="E72" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="J72" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="S72" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="T72" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V72" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W72" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D73" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T73" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U73" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V73" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="E74" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="T74" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U74" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V74" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="J75" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="T75" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U75" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V75" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W75" t="s">
-        <v>101</v>
-      </c>
-      <c r="X75" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="E76" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="J76" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T76" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U76" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V76" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W76" t="s">
-        <v>101</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="300" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="D77" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="J77" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="T77" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U77" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V77" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W77" t="s">
-        <v>101</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="135" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="J78" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T78" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U78" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V78" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="255" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="255" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="E79" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="T79" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U79" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V79" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W79" t="s">
-        <v>101</v>
-      </c>
-      <c r="X79" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="E80" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J80" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T80" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U80" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V80" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W80" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -5720,81 +5406,81 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J81" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="T81" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U81" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V81" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W81" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="390" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="E82" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="T82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U82" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V82" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -5802,34 +5488,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J83" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T83" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U83" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V83" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W83" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -5837,37 +5523,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="E84" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="J84" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="T84" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U84" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V84" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="W84" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F52496D-172D-4571-B322-5A2D0323D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A871F-BEFC-49B5-A992-D8E8138E45C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="406">
   <si>
     <t>index</t>
   </si>
@@ -276,9 +276,6 @@
   <si>
     <t>0 = Unemployed ; 
 1 = Employed</t>
-  </si>
-  <si>
-    <t>work_status</t>
   </si>
   <si>
     <t>work status</t>
@@ -312,9 +309,6 @@
 2 = Full-time</t>
   </si>
   <si>
-    <t>work_time</t>
-  </si>
-  <si>
     <t>work time</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
   </si>
   <si>
     <t>Participant's employment description</t>
-  </si>
-  <si>
-    <t>Occupational Main Code</t>
   </si>
   <si>
     <t>occupational</t>
@@ -377,21 +368,6 @@
     <t>case_when</t>
   </si>
   <si>
-    <t>case_when( 
-`Occupational Main Code` == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
-`Occupational Main Code` == 1 ~ "Manager"; 
-`Occupational Main Code` == 2 ~ "Specialist"; 
-`Occupational Main Code` == 3 ~ "Technicians and associate professionals"; 
-`Occupational Main Code` == 4 ~ "Office supporting employee"; 
-`Occupational Main Code` == 5 ~ "Clerical support workers"; 
-`Occupational Main Code` == 6 ~ "Service and sales workers"; 
-`Occupational Main Code` == 7 ~ "Craft and related trades workers"; 
-`Occupational Main Code` == 8 ~ "Plant and machine operators, and assemblers"; 
-`Occupational Main Code` == 9 ~ "Elementary occupations"; 
-`Occupational Main Code` == 10 ~ "Armed forces occupations"; 
-ELSE ~ NA_character_)</t>
-  </si>
-  <si>
     <t>sdc_retirement_status</t>
   </si>
   <si>
@@ -537,9 +513,6 @@
     <t>kg/m2</t>
   </si>
   <si>
-    <t>Body_Mass_Index</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -549,9 +522,6 @@
     <t>Waist circumference</t>
   </si>
   <si>
-    <t>Waist_Circumference</t>
-  </si>
-  <si>
     <t>WC</t>
   </si>
   <si>
@@ -561,9 +531,6 @@
     <t>Method used to measure the waist circumference</t>
   </si>
   <si>
-    <t>ifelse(is.na(Waist_Circumference), NA, 2)</t>
-  </si>
-  <si>
     <t>pm_bodyfat_perc</t>
   </si>
   <si>
@@ -594,9 +561,6 @@
     <t>mmHg</t>
   </si>
   <si>
-    <t>Systolic_Blood_Pressure</t>
-  </si>
-  <si>
     <t>SBP</t>
   </si>
   <si>
@@ -609,9 +573,6 @@
     <t>Diastolic blood pressure, average of all measures available</t>
   </si>
   <si>
-    <t>Diastolic_Blood_Pressure</t>
-  </si>
-  <si>
     <t>DBP</t>
   </si>
   <si>
@@ -622,9 +583,6 @@
   </si>
   <si>
     <t>beats/minute</t>
-  </si>
-  <si>
-    <t>Resting_Heart_Rate</t>
   </si>
   <si>
     <t>Puls</t>
@@ -650,9 +608,6 @@
 2 = Long fast (&gt;4h)</t>
   </si>
   <si>
-    <t>Fasting_Hours</t>
-  </si>
-  <si>
     <t>Last time had food</t>
   </si>
   <si>
@@ -662,13 +617,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>case_when(
-hour(hm(Fasting_Hours)) + minute(hm(Fasting_Hours)) / 60 &gt; 4 ~ 2L;
-hour(hm(Fasting_Hours)) + minute(hm(Fasting_Hours)) / 60 &lt;= 4 &amp; hour(hm(Fasting_Hours)) + minute(hm(Fasting_Hours)) / 60 &gt; 0 ~ 1L;
-hour(hm(Fasting_Hours)) + minute(hm(Fasting_Hours)) / 60 == 0 ~ 0L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>lab_red_blood_cell_count</t>
   </si>
   <si>
@@ -696,33 +644,21 @@
     <t>mmol/L</t>
   </si>
   <si>
-    <t>Cholestrol_Level</t>
-  </si>
-  <si>
     <t>CHOL</t>
   </si>
   <si>
     <t>mg/dL</t>
   </si>
   <si>
-    <t>Cholestrol_Level/38.67</t>
-  </si>
-  <si>
     <t>lab_chol_hdl</t>
   </si>
   <si>
     <t>HDL cholesterol</t>
   </si>
   <si>
-    <t>High_Density_Lipids</t>
-  </si>
-  <si>
     <t>HDL-CHOL</t>
   </si>
   <si>
-    <t>High_Density_Lipids/38.67</t>
-  </si>
-  <si>
     <t>lab_chol_ldl</t>
   </si>
   <si>
@@ -735,9 +671,6 @@
     <t>Calculated LDL cholesterol</t>
   </si>
   <si>
-    <t>Calculated Low Density Lipids</t>
-  </si>
-  <si>
     <t>LDL CALC</t>
   </si>
   <si>
@@ -747,13 +680,7 @@
     <t>Triglycerides</t>
   </si>
   <si>
-    <t>Triglyciride</t>
-  </si>
-  <si>
     <t>TRIG</t>
-  </si>
-  <si>
-    <t>Triglyciride/88.57</t>
   </si>
   <si>
     <t>lab_c_reac_pro</t>
@@ -897,13 +824,7 @@
     <t>cigarettes/week</t>
   </si>
   <si>
-    <t>Number_of_Cigarettes</t>
-  </si>
-  <si>
     <t>average per day</t>
-  </si>
-  <si>
-    <t>Number_of_Cigarettes/7</t>
   </si>
   <si>
     <t>lsb_rated_health</t>
@@ -916,9 +837,6 @@
 2 = Moderate/Fair ; 
 3 = Good ; 
 4 = Very good/Excellent</t>
-  </si>
-  <si>
-    <t>SRH</t>
   </si>
   <si>
     <t>In general, would you say your health is:</t>
@@ -948,15 +866,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>CH_Angina;
-CH_Myocardial_infarction;
-CH_Heart_failure;
-CH_Atrial_fibrillation;
-CH_Stroke/brain;
-CH_Thrombosis;
-CH_Peripheral_vascular</t>
-  </si>
-  <si>
     <t>1 Yes 
 2 No</t>
   </si>
@@ -964,17 +873,6 @@
     <t>The category "No" was not produced. Collected information included Angina, Myocardial infarction, Heart failure, Atrial fibrillation, Stroke, Thrombosis and Peripheral vascular disease.</t>
   </si>
   <si>
-    <t>case_when(
-CH_Angina == 1 |
-CH_Myocardial_infarction == 1 |
-CH_Heart_failure == 1 |
-CH_Atrial_fibrillation == 1 |
-CH_Stroke/brain == 1 |
-CH_Thrombosis == 1 |
-CH_Peripheral_vascular == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>dis_musculoskeletal</t>
   </si>
   <si>
@@ -984,30 +882,13 @@
     <t>Musculoskeletal diseases (Osteoporosis, Arthrosis, Rheumatic disorder, Osteoarthritis or Rheumatism, Rheumatoid Arthritis, Osteoarthritis, Other arthritis, and Rheumatoid arthritis)</t>
   </si>
   <si>
-    <t>CH_Arthritis;
-CH_Bechterew's_disease;
-CH_Osteoporosis;
-CH_Arthrosis</t>
-  </si>
-  <si>
     <t>The category "No" was not produced. Collected information included Arthritis, Arthrosis, Bechterew's disease and Osteoporosis.</t>
   </si>
   <si>
-    <t>case_when(
-CH_Arthritis == 1 |
-CH_Bechterew's_disease == 1 |
-CH_Arthrosis == 1 |
-CH_Osteoporosis == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>dis_diabetes</t>
   </si>
   <si>
     <t>Diabetes</t>
-  </si>
-  <si>
-    <t>CH_Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">1 Yes
@@ -1036,9 +917,6 @@
     <t>Cancer</t>
   </si>
   <si>
-    <t>CH_Cancer</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 Yes 
 2 No 
 </t>
@@ -1056,9 +934,6 @@
     <t>Use of lipid lowering medication</t>
   </si>
   <si>
-    <t>HS_Cholesterol_lowering_medication</t>
-  </si>
-  <si>
     <t>Cholesterol lowering medication</t>
   </si>
   <si>
@@ -1068,9 +943,6 @@
     <t>Use of medication to manage blood pressure</t>
   </si>
   <si>
-    <t>HS_high_blood_pressure</t>
-  </si>
-  <si>
     <t>high blood pressure</t>
   </si>
   <si>
@@ -1078,9 +950,6 @@
   </si>
   <si>
     <t>Use of medication for diabetes</t>
-  </si>
-  <si>
-    <t>HS_Glucose_lowering_medication</t>
   </si>
   <si>
     <t>Glucose lowering medication</t>
@@ -1140,19 +1009,6 @@
 </t>
   </si>
   <si>
-    <t>rowSums(mutate(.,
-phq9_1 = PHQ9_Little interest - 1,
-phq9_2 = PHQ9_Feeling_down - 1, 
-phq9_3 = PHQ9_Trouble_falling - 1,
-phq9_4 = PHQ9_Feeling_tired - 1,
-phq9_5 = PHQ9_Poor_appetite - 1,
-phq9_6 = PHQ9_Feeling_bad_about_yourself - 1,
-phq9_7 = PHQ9_Trouble_concentrating - 1,
-phq9_8 = PHQ9_Moving_or_speaking - 1,
-phq9_9 = PHQ9_Thoughts_that_you - 1) %&gt;%
-select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9 ), na.rm = TRUE)</t>
-  </si>
-  <si>
     <t>cog_mci_mmse_score</t>
   </si>
   <si>
@@ -1184,13 +1040,7 @@
     <t>hours</t>
   </si>
   <si>
-    <t>PSQI_Hours_of_sleep_per_night</t>
-  </si>
-  <si>
     <t>Q4_hr</t>
-  </si>
-  <si>
-    <t>hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60</t>
   </si>
   <si>
     <t>sleep_duration_cat</t>
@@ -1208,19 +1058,6 @@
 7 = 9 hours;
 8 = 9.5 hours;
 9 = 10 hours or more</t>
-  </si>
-  <si>
-    <t>case_when(
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt;= 0 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 6.25 ~ 1L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 6.25 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 6.75 ~ 2L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 6.75 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 7.25 ~ 3L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 7.25 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 7.75 ~ 4L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 7.75 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 8.25 ~ 5L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 8.25 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 8.75 ~ 6L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 8.75 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 9.25 ~ 7L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt; 9.25 &amp; hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &lt;= 9.75 ~ 8L;
-hour(hm(PSQI_Hours_of_sleep_per_night)) + minute(hm(PSQI_Hours_of_sleep_per_night)) / 60 &gt;= 10 ~ 9L;
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>sleep_difficulties</t>
@@ -1629,37 +1466,181 @@
     <t>Indicator of whether the participant is engaging in physical activity during leisure-time (including sport)</t>
   </si>
   <si>
-    <t>GPAQ_at_work_vigorous-intensity_activity;
-GPAQ_at_work_moderate-intensity_activity</t>
+    <t>phy_mobility_limitation_SF36</t>
+  </si>
+  <si>
+    <t>Physical function SF36 subscale score</t>
+  </si>
+  <si>
+    <t>Total score of the physical function subscale of SF38</t>
+  </si>
+  <si>
+    <t>phy_SF36_nb_items</t>
+  </si>
+  <si>
+    <t>Number of non-missing items</t>
+  </si>
+  <si>
+    <t>Number of non-missing items in the SF36 physical function subscale</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Work_status</t>
+  </si>
+  <si>
+    <t>case_when( 
+Occupational_Main_Code == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
+Occupational_Code == 1 ~ "Manager"; 
+Occupational_Code == 2 ~ "Specialist"; 
+Occupational_Code == 3 ~ "Technicians and associate professionals"; 
+Occupational_Code == 4 ~ "Office supporting employee"; 
+Occupational_Code == 5 ~ "Clerical support workers"; 
+Occupational_Code == 6 ~ "Service and sales workers"; 
+Occupational_Code == 7 ~ "Craft and related trades workers"; 
+Occupational_Code == 8 ~ "Plant and machine operators, and assemblers"; 
+Occupational_Code == 9 ~ "Elementary occupations"; 
+Occupational_Code == 10 ~ "Armed forces occupations"; 
+ELSE ~ NA_character_)</t>
+  </si>
+  <si>
+    <t>Occupational_Code</t>
+  </si>
+  <si>
+    <t>Work_time</t>
+  </si>
+  <si>
+    <t>ifelse(is.na(WC), NA, 2)</t>
+  </si>
+  <si>
+    <t>Last_time_had_food</t>
   </si>
   <si>
     <t>case_when(
-GPAQ_at_work_vigorous-intensity_activity == 1 |
-GPAQ_at_work_moderate-intensity_activity == 1 ~ 1L;
-GPAQ_at_work_vigorous-intensity_activity == 0 &amp;
-GPAQ_at_work_moderate-intensity_activity == 0 ~ 0L;
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 4 ~ 2L;
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &lt;= 4 &amp; hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 0 ~ 1L;
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 == 0 ~ 0L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>phy_mobility_limitation_SF36</t>
-  </si>
-  <si>
-    <t>Physical function SF36 subscale score</t>
-  </si>
-  <si>
-    <t>Total score of the physical function subscale of SF38</t>
-  </si>
-  <si>
-    <t>phy_SF36_nb_items</t>
-  </si>
-  <si>
-    <t>Number of non-missing items</t>
-  </si>
-  <si>
-    <t>Number of non-missing items in the SF36 physical function subscale</t>
-  </si>
-  <si>
-    <t>items</t>
+    <t>HDL_CHOL</t>
+  </si>
+  <si>
+    <t>CHOL/38.67</t>
+  </si>
+  <si>
+    <t>HDL_CHOL/38.67</t>
+  </si>
+  <si>
+    <t>TRIG/88.57</t>
+  </si>
+  <si>
+    <t>LDL_CALC</t>
+  </si>
+  <si>
+    <t>N_Cigarettes_Day</t>
+  </si>
+  <si>
+    <t>N_Cigarettes_Day/7</t>
+  </si>
+  <si>
+    <t>Health_Perception</t>
+  </si>
+  <si>
+    <t>CHS_Angina;
+CHS_Myocardial_infarction;
+CHS_Heart_failure;
+CHS_Atrial_fibrillation;
+CHS_Stroke/brain;
+CHS_Thrombosis;
+CHS_Peripheral_vascular</t>
+  </si>
+  <si>
+    <t>case_when(
+CHS_Angina == 1 |
+CHS_Myocardial_infarction == 1 |
+CHS_Heart_failure == 1 |
+CHS_Atrial_fibrillation == 1 |
+CHS_Stroke/brain == 1 |
+CHS_Thrombosis == 1 |
+CHS_Peripheral_vascular == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>CHS_Diabetes</t>
+  </si>
+  <si>
+    <t>CHS_Cancer</t>
+  </si>
+  <si>
+    <t>HSP_Cholesterol</t>
+  </si>
+  <si>
+    <t>HSP_Glucose</t>
+  </si>
+  <si>
+    <t>HSP_Hypertension</t>
+  </si>
+  <si>
+    <t>CHS_Mental_health</t>
+  </si>
+  <si>
+    <t>PSQI_Hour_of_sleep_pe_night</t>
+  </si>
+  <si>
+    <t>hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60</t>
+  </si>
+  <si>
+    <t>case_when(
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 0 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.25 ~ 1L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.75 ~ 2L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.25 ~ 3L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.75 ~ 4L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.25 ~ 5L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.75 ~ 6L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.25 ~ 7L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 9.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.75 ~ 8L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 10 ~ 9L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+GPAQ_at_work_vigorous_intensity_activity == 1 |
+GPAQ_at_work_moderate_intensity_activity == 1 ~ 1L;
+GPAQ_at_work_vigorous_intensity_activity == 0 &amp;
+GPAQ_at_work_moderate_intensity_activity == 0 ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>GPAQ_at_work_vigorous_intensity_activity;
+GPAQ_at_work_moderate_intensity_activity</t>
+  </si>
+  <si>
+    <t>CHS_Arthritis;
+CHS_Bechterews_disease;
+CHS_Osteoporosis;
+CHS_Arthrosis</t>
+  </si>
+  <si>
+    <t>case_when(
+CHS_Arthritis == 1 |
+CHS_Bechterews_disease == 1 |
+CHS_Arthrosis == 1 |
+CHS_Osteoporosis == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>rowSums(mutate(.,
+phq9_1 = (PHQ9_Little interest - 1),
+phq9_2 = (PHQ9_Feeling_down - 1), 
+phq9_3 = (PHQ9_Trouble_falling - 1),
+phq9_4 = (PHQ9_Feeling_tired - 1),
+phq9_5 = (PHQ9_Poor_appetite - 1),
+phq9_6 = (PHQ9_Feeling_bad_about_yourself - 1),
+phq9_7 = (PHQ9_Trouble_concentrating - 1),
+phq9_8 = (PHQ9_Moving_or_speaking - 1),
+phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
   </si>
 </sst>
 </file>
@@ -2036,12 +2017,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="J53" workbookViewId="0">
+      <selection activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="9" max="9" width="76.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
     <col min="17" max="17" width="69.28515625" customWidth="1"/>
     <col min="23" max="23" width="94.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2290,7 +2273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2334,7 +2317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2398,13 +2381,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" t="s">
         <v>75</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -2416,7 +2399,7 @@
         <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -2427,40 +2410,40 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>378</v>
+      </c>
+      <c r="K9" t="s">
         <v>82</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" t="s">
         <v>85</v>
       </c>
-      <c r="T9" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" t="s">
-        <v>87</v>
-      </c>
       <c r="V9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2471,31 +2454,31 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="210" x14ac:dyDescent="0.25">
@@ -2506,25 +2489,25 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
         <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -2533,10 +2516,10 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -2547,28 +2530,28 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -2580,10 +2563,10 @@
         <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2591,28 +2574,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
         <v>106</v>
       </c>
-      <c r="D13" t="s">
+      <c r="K13" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -2624,10 +2607,10 @@
         <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2635,28 +2618,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -2668,7 +2651,7 @@
         <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -2679,28 +2662,28 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
         <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
@@ -2723,25 +2706,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
         <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" t="s">
-        <v>128</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
@@ -2759,10 +2742,10 @@
         <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2770,22 +2753,22 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T17" t="s">
         <v>32</v>
@@ -2797,7 +2780,7 @@
         <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2808,28 +2791,28 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="s">
         <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
-      </c>
-      <c r="P18" t="s">
-        <v>138</v>
       </c>
       <c r="Q18" t="s">
         <v>31</v>
@@ -2847,7 +2830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2855,22 +2838,22 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T19" t="s">
         <v>32</v>
@@ -2882,7 +2865,7 @@
         <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2893,28 +2876,28 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
@@ -2940,25 +2923,25 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
@@ -2979,7 +2962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2987,22 +2970,22 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T22" t="s">
         <v>32</v>
@@ -3014,7 +2997,7 @@
         <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3025,34 +3008,34 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J23" t="s">
         <v>68</v>
       </c>
       <c r="T23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -3063,13 +3046,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -3078,16 +3061,16 @@
         <v>68</v>
       </c>
       <c r="T24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -3098,25 +3081,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
@@ -3145,25 +3128,25 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
@@ -3192,25 +3175,25 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
@@ -3239,34 +3222,34 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J28" t="s">
         <v>68</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -3277,31 +3260,31 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
         <v>48</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T29" t="s">
         <v>32</v>
@@ -3310,10 +3293,10 @@
         <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3324,34 +3307,34 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J30" t="s">
         <v>68</v>
       </c>
       <c r="T30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -3362,34 +3345,34 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J31" t="s">
         <v>68</v>
       </c>
       <c r="T31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3400,25 +3383,25 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
@@ -3427,7 +3410,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="T32" t="s">
         <v>32</v>
@@ -3439,7 +3422,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3450,25 +3433,25 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
@@ -3477,7 +3460,7 @@
         <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="T33" t="s">
         <v>32</v>
@@ -3489,7 +3472,7 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3500,34 +3483,34 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J34" t="s">
         <v>68</v>
       </c>
       <c r="T34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3538,25 +3521,25 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
@@ -3565,7 +3548,7 @@
         <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="T35" t="s">
         <v>32</v>
@@ -3588,25 +3571,25 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
@@ -3615,7 +3598,7 @@
         <v>31</v>
       </c>
       <c r="R36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="T36" t="s">
         <v>32</v>
@@ -3627,7 +3610,7 @@
         <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>215</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3638,34 +3621,34 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="J37" t="s">
         <v>68</v>
       </c>
       <c r="T37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U37" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3676,37 +3659,37 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
         <v>68</v>
       </c>
       <c r="T38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U38" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3714,34 +3697,34 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="J39" t="s">
         <v>68</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3752,37 +3735,37 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="J40" t="s">
         <v>68</v>
       </c>
       <c r="T40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U40" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3790,34 +3773,34 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="J41" t="s">
         <v>68</v>
       </c>
       <c r="T41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -3828,34 +3811,34 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="J42" t="s">
         <v>68</v>
       </c>
       <c r="T42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -3866,40 +3849,40 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>68</v>
       </c>
       <c r="S43" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="T43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3907,40 +3890,40 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J44" t="s">
         <v>68</v>
       </c>
       <c r="S44" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="T44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3948,28 +3931,28 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J45" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K45" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="T45" t="s">
         <v>32</v>
@@ -3981,10 +3964,10 @@
         <v>62</v>
       </c>
       <c r="W45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3992,28 +3975,28 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="T46" t="s">
         <v>32</v>
@@ -4025,7 +4008,7 @@
         <v>62</v>
       </c>
       <c r="W46" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -4036,25 +4019,25 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
         <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
@@ -4069,10 +4052,10 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4080,28 +4063,28 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F48" t="s">
         <v>48</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="K48" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="T48" t="s">
         <v>32</v>
@@ -4113,7 +4096,7 @@
         <v>62</v>
       </c>
       <c r="W48" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="225" x14ac:dyDescent="0.25">
@@ -4124,28 +4107,28 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
         <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="S49" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="T49" t="s">
         <v>32</v>
@@ -4154,13 +4137,13 @@
         <v>42</v>
       </c>
       <c r="V49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4168,25 +4151,25 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="S50" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="T50" t="s">
         <v>32</v>
@@ -4195,10 +4178,10 @@
         <v>42</v>
       </c>
       <c r="V50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4209,28 +4192,28 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
         <v>48</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J51" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="T51" t="s">
         <v>32</v>
@@ -4242,7 +4225,7 @@
         <v>62</v>
       </c>
       <c r="W51" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -4253,34 +4236,34 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="J52" t="s">
         <v>68</v>
       </c>
       <c r="T52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -4291,28 +4274,28 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="F53" t="s">
         <v>48</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="T53" t="s">
         <v>32</v>
@@ -4324,7 +4307,7 @@
         <v>62</v>
       </c>
       <c r="W53" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4335,34 +4318,34 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F54" t="s">
         <v>48</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J54" t="s">
         <v>68</v>
       </c>
       <c r="T54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U54" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4373,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
         <v>48</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="K55" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="T55" t="s">
         <v>32</v>
@@ -4406,7 +4389,7 @@
         <v>62</v>
       </c>
       <c r="W55" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4417,28 +4400,28 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
         <v>48</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="T56" t="s">
         <v>32</v>
@@ -4450,7 +4433,7 @@
         <v>62</v>
       </c>
       <c r="W56" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4461,28 +4444,28 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="T57" t="s">
         <v>32</v>
@@ -4494,7 +4477,7 @@
         <v>62</v>
       </c>
       <c r="W57" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4505,40 +4488,40 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="K58" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="T58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -4549,13 +4532,13 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="F59" t="s">
         <v>48</v>
@@ -4564,16 +4547,16 @@
         <v>68</v>
       </c>
       <c r="T59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U59" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4584,13 +4567,13 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D60" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
         <v>48</v>
@@ -4599,16 +4582,16 @@
         <v>68</v>
       </c>
       <c r="T60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U60" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -4619,13 +4602,13 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="F61" t="s">
         <v>48</v>
@@ -4634,16 +4617,16 @@
         <v>68</v>
       </c>
       <c r="T61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U61" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -4654,13 +4637,13 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="F62" t="s">
         <v>48</v>
@@ -4669,19 +4652,19 @@
         <v>68</v>
       </c>
       <c r="T62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U62" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="405" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="195" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4689,19 +4672,19 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="F63" t="s">
         <v>48</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="T63" t="s">
         <v>32</v>
@@ -4713,7 +4696,7 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -4724,13 +4707,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
         <v>48</v>
@@ -4739,16 +4722,16 @@
         <v>68</v>
       </c>
       <c r="T64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U64" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -4759,13 +4742,13 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -4774,19 +4757,19 @@
         <v>68</v>
       </c>
       <c r="T65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U65" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4794,34 +4777,34 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
         <v>48</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="J66" t="s">
         <v>68</v>
       </c>
       <c r="T66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U66" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -4832,31 +4815,31 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E67" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="J67" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q67" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T67" t="s">
         <v>32</v>
@@ -4865,10 +4848,10 @@
         <v>42</v>
       </c>
       <c r="V67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W67" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
@@ -4879,31 +4862,31 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E68" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F68" t="s">
         <v>48</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="J68" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="K68" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q68" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T68" t="s">
         <v>32</v>
@@ -4912,10 +4895,10 @@
         <v>42</v>
       </c>
       <c r="V68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -4926,28 +4909,28 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D69" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="E69" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
         <v>48</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="J69" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="K69" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="T69" t="s">
         <v>32</v>
@@ -4959,7 +4942,7 @@
         <v>62</v>
       </c>
       <c r="W69" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -4970,37 +4953,37 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="E70" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="S70" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="T70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U70" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5008,28 +4991,28 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="D71" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="E71" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="J71" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="S71" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="T71" t="s">
         <v>32</v>
@@ -5041,10 +5024,10 @@
         <v>62</v>
       </c>
       <c r="W71" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5052,28 +5035,28 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="E72" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
         <v>48</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="J72" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="S72" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="T72" t="s">
         <v>32</v>
@@ -5085,10 +5068,10 @@
         <v>62</v>
       </c>
       <c r="W72" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5096,34 +5079,34 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="D73" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="E73" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="T73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U73" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -5134,40 +5117,40 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="F74" t="s">
         <v>48</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="T74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5175,37 +5158,37 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="F75" t="s">
         <v>48</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="J75" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="T75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U75" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -5216,37 +5199,37 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D76" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="E76" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="F76" t="s">
         <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="J76" t="s">
         <v>68</v>
       </c>
       <c r="T76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U76" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="300" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5254,40 +5237,40 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="E77" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
         <v>48</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="J77" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="T77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5295,37 +5278,37 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E78" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="F78" t="s">
         <v>48</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="J78" t="s">
         <v>68</v>
       </c>
       <c r="T78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U78" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="255" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5333,34 +5316,34 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="E79" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="T79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -5371,34 +5354,34 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="D80" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="E80" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J80" t="s">
         <v>68</v>
       </c>
       <c r="T80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U80" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -5409,25 +5392,25 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="E81" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="F81" t="s">
         <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="J81" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="T81" t="s">
         <v>32</v>
@@ -5439,10 +5422,10 @@
         <v>62</v>
       </c>
       <c r="W81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5450,25 +5433,25 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="D82" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
+        <v>367</v>
+      </c>
+      <c r="F82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F82" t="s">
-        <v>48</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="Q82" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="T82" t="s">
         <v>32</v>
@@ -5477,10 +5460,10 @@
         <v>42</v>
       </c>
       <c r="V82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -5491,13 +5474,13 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="F83" t="s">
         <v>48</v>
@@ -5506,16 +5489,16 @@
         <v>68</v>
       </c>
       <c r="T83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U83" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -5526,34 +5509,34 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="F84" t="s">
         <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="J84" t="s">
         <v>68</v>
       </c>
       <c r="T84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U84" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A871F-BEFC-49B5-A992-D8E8138E45C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9A127-8F5E-44DC-90C0-D82732DDA5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -1490,8 +1490,126 @@
     <t>Work_status</t>
   </si>
   <si>
+    <t>Occupational_Code</t>
+  </si>
+  <si>
+    <t>Work_time</t>
+  </si>
+  <si>
+    <t>ifelse(is.na(WC), NA, 2)</t>
+  </si>
+  <si>
+    <t>Last_time_had_food</t>
+  </si>
+  <si>
+    <t>case_when(
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 4 ~ 2L;
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &lt;= 4 &amp; hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 0 ~ 1L;
+hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 == 0 ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>HDL_CHOL</t>
+  </si>
+  <si>
+    <t>CHOL/38.67</t>
+  </si>
+  <si>
+    <t>HDL_CHOL/38.67</t>
+  </si>
+  <si>
+    <t>TRIG/88.57</t>
+  </si>
+  <si>
+    <t>LDL_CALC</t>
+  </si>
+  <si>
+    <t>N_Cigarettes_Day</t>
+  </si>
+  <si>
+    <t>N_Cigarettes_Day/7</t>
+  </si>
+  <si>
+    <t>Health_Perception</t>
+  </si>
+  <si>
+    <t>CHS_Diabetes</t>
+  </si>
+  <si>
+    <t>CHS_Cancer</t>
+  </si>
+  <si>
+    <t>HSP_Cholesterol</t>
+  </si>
+  <si>
+    <t>HSP_Glucose</t>
+  </si>
+  <si>
+    <t>HSP_Hypertension</t>
+  </si>
+  <si>
+    <t>CHS_Mental_health</t>
+  </si>
+  <si>
+    <t>PSQI_Hour_of_sleep_pe_night</t>
+  </si>
+  <si>
+    <t>hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60</t>
+  </si>
+  <si>
+    <t>case_when(
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 0 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.25 ~ 1L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.75 ~ 2L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.25 ~ 3L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.75 ~ 4L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.25 ~ 5L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.75 ~ 6L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.25 ~ 7L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 9.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.75 ~ 8L;
+hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 10 ~ 9L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+GPAQ_at_work_vigorous_intensity_activity == 1 |
+GPAQ_at_work_moderate_intensity_activity == 1 ~ 1L;
+GPAQ_at_work_vigorous_intensity_activity == 0 &amp;
+GPAQ_at_work_moderate_intensity_activity == 0 ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>GPAQ_at_work_vigorous_intensity_activity;
+GPAQ_at_work_moderate_intensity_activity</t>
+  </si>
+  <si>
+    <t>CHS_Arthritis;
+CHS_Bechterews_disease;
+CHS_Osteoporosis;
+CHS_Arthrosis</t>
+  </si>
+  <si>
+    <t>case_when(
+CHS_Arthritis == 1 |
+CHS_Bechterews_disease == 1 |
+CHS_Arthrosis == 1 |
+CHS_Osteoporosis == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>rowSums(mutate(.,
+phq9_1 = (PHQ9_Little interest - 1),
+phq9_2 = (PHQ9_Feeling_down - 1), 
+phq9_3 = (PHQ9_Trouble_falling - 1),
+phq9_4 = (PHQ9_Feeling_tired - 1),
+phq9_5 = (PHQ9_Poor_appetite - 1),
+phq9_6 = (PHQ9_Feeling_bad_about_yourself - 1),
+phq9_7 = (PHQ9_Trouble_concentrating - 1),
+phq9_8 = (PHQ9_Moving_or_speaking - 1),
+phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
+  </si>
+  <si>
     <t>case_when( 
-Occupational_Main_Code == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
+Occupational_Code == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
 Occupational_Code == 1 ~ "Manager"; 
 Occupational_Code == 2 ~ "Specialist"; 
 Occupational_Code == 3 ~ "Technicians and associate professionals"; 
@@ -1505,54 +1623,11 @@
 ELSE ~ NA_character_)</t>
   </si>
   <si>
-    <t>Occupational_Code</t>
-  </si>
-  <si>
-    <t>Work_time</t>
-  </si>
-  <si>
-    <t>ifelse(is.na(WC), NA, 2)</t>
-  </si>
-  <si>
-    <t>Last_time_had_food</t>
-  </si>
-  <si>
-    <t>case_when(
-hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 4 ~ 2L;
-hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &lt;= 4 &amp; hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 &gt; 0 ~ 1L;
-hour(hm(Last_time_had_food)) + minute(hm(Last_time_had_food)) / 60 == 0 ~ 0L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>HDL_CHOL</t>
-  </si>
-  <si>
-    <t>CHOL/38.67</t>
-  </si>
-  <si>
-    <t>HDL_CHOL/38.67</t>
-  </si>
-  <si>
-    <t>TRIG/88.57</t>
-  </si>
-  <si>
-    <t>LDL_CALC</t>
-  </si>
-  <si>
-    <t>N_Cigarettes_Day</t>
-  </si>
-  <si>
-    <t>N_Cigarettes_Day/7</t>
-  </si>
-  <si>
-    <t>Health_Perception</t>
-  </si>
-  <si>
     <t>CHS_Angina;
 CHS_Myocardial_infarction;
 CHS_Heart_failure;
 CHS_Atrial_fibrillation;
-CHS_Stroke/brain;
+CHS_Stroke_brain;
 CHS_Thrombosis;
 CHS_Peripheral_vascular</t>
   </si>
@@ -1562,85 +1637,10 @@
 CHS_Myocardial_infarction == 1 |
 CHS_Heart_failure == 1 |
 CHS_Atrial_fibrillation == 1 |
-CHS_Stroke/brain == 1 |
+CHS_Stroke_brain == 1 |
 CHS_Thrombosis == 1 |
 CHS_Peripheral_vascular == 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>CHS_Diabetes</t>
-  </si>
-  <si>
-    <t>CHS_Cancer</t>
-  </si>
-  <si>
-    <t>HSP_Cholesterol</t>
-  </si>
-  <si>
-    <t>HSP_Glucose</t>
-  </si>
-  <si>
-    <t>HSP_Hypertension</t>
-  </si>
-  <si>
-    <t>CHS_Mental_health</t>
-  </si>
-  <si>
-    <t>PSQI_Hour_of_sleep_pe_night</t>
-  </si>
-  <si>
-    <t>hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60</t>
-  </si>
-  <si>
-    <t>case_when(
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 0 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.25 ~ 1L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 6.75 ~ 2L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 6.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.25 ~ 3L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 7.75 ~ 4L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 7.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.25 ~ 5L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 8.75 ~ 6L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 8.75 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.25 ~ 7L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt; 9.25 &amp; hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &lt;= 9.75 ~ 8L;
-hour(hm(PSQI_Hour_of_sleep_pe_night)) + minute(hm(PSQI_Hour_of_sleep_pe_night)) / 60 &gt;= 10 ~ 9L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(
-GPAQ_at_work_vigorous_intensity_activity == 1 |
-GPAQ_at_work_moderate_intensity_activity == 1 ~ 1L;
-GPAQ_at_work_vigorous_intensity_activity == 0 &amp;
-GPAQ_at_work_moderate_intensity_activity == 0 ~ 0L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>GPAQ_at_work_vigorous_intensity_activity;
-GPAQ_at_work_moderate_intensity_activity</t>
-  </si>
-  <si>
-    <t>CHS_Arthritis;
-CHS_Bechterews_disease;
-CHS_Osteoporosis;
-CHS_Arthrosis</t>
-  </si>
-  <si>
-    <t>case_when(
-CHS_Arthritis == 1 |
-CHS_Bechterews_disease == 1 |
-CHS_Arthrosis == 1 |
-CHS_Osteoporosis == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>rowSums(mutate(.,
-phq9_1 = (PHQ9_Little interest - 1),
-phq9_2 = (PHQ9_Feeling_down - 1), 
-phq9_3 = (PHQ9_Trouble_falling - 1),
-phq9_4 = (PHQ9_Feeling_tired - 1),
-phq9_5 = (PHQ9_Poor_appetite - 1),
-phq9_6 = (PHQ9_Feeling_bad_about_yourself - 1),
-phq9_7 = (PHQ9_Trouble_concentrating - 1),
-phq9_8 = (PHQ9_Moving_or_speaking - 1),
-phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
   </si>
 </sst>
 </file>
@@ -2017,12 +2017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J53" workbookViewId="0">
-      <selection activeCell="W63" sqref="W63"/>
+    <sheetView tabSelected="1" topLeftCell="I50" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="43" customWidth="1"/>
     <col min="9" max="9" width="76.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" customWidth="1"/>
     <col min="17" max="17" width="69.28515625" customWidth="1"/>
@@ -2425,7 +2426,7 @@
         <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K9" t="s">
         <v>82</v>
@@ -2501,7 +2502,7 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K11" t="s">
         <v>94</v>
@@ -2519,7 +2520,7 @@
         <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -2997,7 +2998,7 @@
         <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3275,7 +3276,7 @@
         <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K29" t="s">
         <v>172</v>
@@ -3296,7 +3297,7 @@
         <v>96</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3422,7 +3423,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3448,7 +3449,7 @@
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
@@ -3472,7 +3473,7 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3536,7 +3537,7 @@
         <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K35" t="s">
         <v>193</v>
@@ -3610,7 +3611,7 @@
         <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4034,7 +4035,7 @@
         <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K47" t="s">
         <v>240</v>
@@ -4052,7 +4053,7 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4078,7 +4079,7 @@
         <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s">
         <v>244</v>
@@ -4099,7 +4100,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="225" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>250</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>251</v>
@@ -4140,7 +4141,7 @@
         <v>96</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4166,7 +4167,7 @@
         <v>250</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="S50" t="s">
         <v>256</v>
@@ -4181,7 +4182,7 @@
         <v>96</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4207,7 +4208,7 @@
         <v>250</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s">
         <v>258</v>
@@ -4289,7 +4290,7 @@
         <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s">
         <v>265</v>
@@ -4371,7 +4372,7 @@
         <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s">
         <v>271</v>
@@ -4415,7 +4416,7 @@
         <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s">
         <v>274</v>
@@ -4459,7 +4460,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s">
         <v>277</v>
@@ -4503,7 +4504,7 @@
         <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K58" t="s">
         <v>281</v>
@@ -4696,7 +4697,7 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -4830,7 +4831,7 @@
         <v>302</v>
       </c>
       <c r="J67" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K67" t="s">
         <v>303</v>
@@ -4851,7 +4852,7 @@
         <v>96</v>
       </c>
       <c r="W67" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
@@ -4877,7 +4878,7 @@
         <v>306</v>
       </c>
       <c r="J68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s">
         <v>303</v>
@@ -4898,7 +4899,7 @@
         <v>96</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -5308,7 +5309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>250</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>364</v>
@@ -5463,7 +5464,7 @@
         <v>96</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">

--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9A127-8F5E-44DC-90C0-D82732DDA5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F225714-ABA0-4721-8FAE-6F5A4497347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -1490,9 +1490,6 @@
     <t>Work_status</t>
   </si>
   <si>
-    <t>Occupational_Code</t>
-  </si>
-  <si>
     <t>Work_time</t>
   </si>
   <si>
@@ -1596,6 +1593,44 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
+    <t>CHS_Angina;
+CHS_Myocardial_infarction;
+CHS_Heart_failure;
+CHS_Atrial_fibrillation;
+CHS_Stroke_brain;
+CHS_Thrombosis;
+CHS_Peripheral_vascular</t>
+  </si>
+  <si>
+    <t>case_when(
+CHS_Angina == 1 |
+CHS_Myocardial_infarction == 1 |
+CHS_Heart_failure == 1 |
+CHS_Atrial_fibrillation == 1 |
+CHS_Stroke_brain == 1 |
+CHS_Thrombosis == 1 |
+CHS_Peripheral_vascular == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Occupational</t>
+  </si>
+  <si>
+    <t>case_when( 
+Occupational == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
+Occupational == 1 ~ "Manager"; 
+Occupational == 2 ~ "Specialist"; 
+Occupational == 3 ~ "Technicians and associate professionals"; 
+Occupational == 4 ~ "Office supporting employee"; 
+Occupational == 5 ~ "Clerical support workers"; 
+Occupational == 6 ~ "Service and sales workers"; 
+Occupational == 7 ~ "Craft and related trades workers"; 
+Occupational == 8 ~ "Plant and machine operators, and assemblers"; 
+Occupational == 9 ~ "Elementary occupations"; 
+Occupational == 10 ~ "Armed forces occupations"; 
+ELSE ~ NA_character_)</t>
+  </si>
+  <si>
     <t>rowSums(mutate(.,
 phq9_1 = (PHQ9_Little interest - 1),
 phq9_2 = (PHQ9_Feeling_down - 1), 
@@ -1605,42 +1640,8 @@
 phq9_6 = (PHQ9_Feeling_bad_about_yourself - 1),
 phq9_7 = (PHQ9_Trouble_concentrating - 1),
 phq9_8 = (PHQ9_Moving_or_speaking - 1),
-phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
-  </si>
-  <si>
-    <t>case_when( 
-Occupational_Code == 0 ~ "Not working due to retirement or other reasons related to employment status"; 
-Occupational_Code == 1 ~ "Manager"; 
-Occupational_Code == 2 ~ "Specialist"; 
-Occupational_Code == 3 ~ "Technicians and associate professionals"; 
-Occupational_Code == 4 ~ "Office supporting employee"; 
-Occupational_Code == 5 ~ "Clerical support workers"; 
-Occupational_Code == 6 ~ "Service and sales workers"; 
-Occupational_Code == 7 ~ "Craft and related trades workers"; 
-Occupational_Code == 8 ~ "Plant and machine operators, and assemblers"; 
-Occupational_Code == 9 ~ "Elementary occupations"; 
-Occupational_Code == 10 ~ "Armed forces occupations"; 
-ELSE ~ NA_character_)</t>
-  </si>
-  <si>
-    <t>CHS_Angina;
-CHS_Myocardial_infarction;
-CHS_Heart_failure;
-CHS_Atrial_fibrillation;
-CHS_Stroke_brain;
-CHS_Thrombosis;
-CHS_Peripheral_vascular</t>
-  </si>
-  <si>
-    <t>case_when(
-CHS_Angina == 1 |
-CHS_Myocardial_infarction == 1 |
-CHS_Heart_failure == 1 |
-CHS_Atrial_fibrillation == 1 |
-CHS_Stroke_brain == 1 |
-CHS_Thrombosis == 1 |
-CHS_Peripheral_vascular == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
+phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% 
+select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
   </si>
 </sst>
 </file>
@@ -2017,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I50" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
+      <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2427,7 @@
         <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K9" t="s">
         <v>82</v>
@@ -2482,7 +2483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="195" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="K11" t="s">
         <v>94</v>
@@ -2520,7 +2521,7 @@
         <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -2998,7 +2999,7 @@
         <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3276,7 +3277,7 @@
         <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K29" t="s">
         <v>172</v>
@@ -3297,7 +3298,7 @@
         <v>96</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3423,7 +3424,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3449,7 +3450,7 @@
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
@@ -3473,7 +3474,7 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3537,7 +3538,7 @@
         <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K35" t="s">
         <v>193</v>
@@ -3611,7 +3612,7 @@
         <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4035,7 +4036,7 @@
         <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s">
         <v>240</v>
@@ -4053,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4079,7 +4080,7 @@
         <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K48" t="s">
         <v>244</v>
@@ -4123,7 +4124,7 @@
         <v>250</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>251</v>
@@ -4141,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4167,7 +4168,7 @@
         <v>250</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S50" t="s">
         <v>256</v>
@@ -4182,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4208,7 +4209,7 @@
         <v>250</v>
       </c>
       <c r="J51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K51" t="s">
         <v>258</v>
@@ -4290,7 +4291,7 @@
         <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s">
         <v>265</v>
@@ -4372,7 +4373,7 @@
         <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s">
         <v>271</v>
@@ -4416,7 +4417,7 @@
         <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s">
         <v>274</v>
@@ -4460,7 +4461,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s">
         <v>277</v>
@@ -4504,7 +4505,7 @@
         <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K58" t="s">
         <v>281</v>
@@ -4697,7 +4698,7 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -4831,7 +4832,7 @@
         <v>302</v>
       </c>
       <c r="J67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K67" t="s">
         <v>303</v>
@@ -4852,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="W67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
@@ -4878,7 +4879,7 @@
         <v>306</v>
       </c>
       <c r="J68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K68" t="s">
         <v>303</v>
@@ -4899,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -5449,7 +5450,7 @@
         <v>250</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>364</v>
@@ -5464,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">

--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F225714-ABA0-4721-8FAE-6F5A4497347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C925B62A-57E8-47E0-8134-47971F700EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -995,18 +995,6 @@
   </si>
   <si>
     <t>PHQ-9 score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHQ9_Little interest;
-PHQ9_Feeling_down;
-PHQ9_Trouble_falling;
-PHQ9_Feeling_tired;
-PHQ9_Poor_appetite;
-PHQ9_Feeling_bad_about_yourself;
-PHQ9_Trouble_concentrating;
-PHQ9_Moving_or_speaking;
-PHQ9_Thoughts_that_you
-</t>
   </si>
   <si>
     <t>cog_mci_mmse_score</t>
@@ -1632,7 +1620,7 @@
   </si>
   <si>
     <t>rowSums(mutate(.,
-phq9_1 = (PHQ9_Little interest - 1),
+phq9_1 = (PHQ9_Little_interest - 1),
 phq9_2 = (PHQ9_Feeling_down - 1), 
 phq9_3 = (PHQ9_Trouble_falling - 1),
 phq9_4 = (PHQ9_Feeling_tired - 1),
@@ -1642,6 +1630,18 @@
 phq9_8 = (PHQ9_Moving_or_speaking - 1),
 phq9_9 = (PHQ9_Thoughts_that_you - 1)) %&gt;% 
 select(phq9_1 , phq9_2 , phq9_3 , phq9_4 , phq9_5 , phq9_6 , phq9_7 , phq9_8 , phq9_9), na.rm = TRUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHQ9_Little_interest;
+PHQ9_Feeling_down;
+PHQ9_Trouble_falling;
+PHQ9_Feeling_tired;
+PHQ9_Poor_appetite;
+PHQ9_Feeling_bad_about_yourself;
+PHQ9_Trouble_concentrating;
+PHQ9_Moving_or_speaking;
+PHQ9_Thoughts_that_you
+</t>
   </si>
 </sst>
 </file>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
-      <selection activeCell="V63" sqref="V63"/>
+    <sheetView tabSelected="1" topLeftCell="J54" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,7 @@
         <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
@@ -2427,7 +2427,7 @@
         <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
         <v>82</v>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K11" t="s">
         <v>94</v>
@@ -2521,7 +2521,7 @@
         <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
@@ -2999,7 +2999,7 @@
         <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K29" t="s">
         <v>172</v>
@@ -3298,7 +3298,7 @@
         <v>96</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
@@ -3474,7 +3474,7 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K35" t="s">
         <v>193</v>
@@ -3612,7 +3612,7 @@
         <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
         <v>240</v>
@@ -4054,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
         <v>244</v>
@@ -4124,7 +4124,7 @@
         <v>250</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>251</v>
@@ -4142,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>250</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S50" t="s">
         <v>256</v>
@@ -4183,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>250</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K51" t="s">
         <v>258</v>
@@ -4291,7 +4291,7 @@
         <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s">
         <v>265</v>
@@ -4373,7 +4373,7 @@
         <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s">
         <v>271</v>
@@ -4417,7 +4417,7 @@
         <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K56" t="s">
         <v>274</v>
@@ -4461,7 +4461,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K57" t="s">
         <v>277</v>
@@ -4505,7 +4505,7 @@
         <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K58" t="s">
         <v>281</v>
@@ -4686,7 +4686,7 @@
         <v>48</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="T63" t="s">
         <v>32</v>
@@ -4698,7 +4698,7 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -4709,13 +4709,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
         <v>293</v>
       </c>
-      <c r="D64" t="s">
-        <v>294</v>
-      </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
         <v>48</v>
@@ -4744,13 +4744,13 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
         <v>295</v>
       </c>
-      <c r="D65" t="s">
-        <v>296</v>
-      </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -4779,19 +4779,19 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" t="s">
         <v>297</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E66" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J66" t="s">
         <v>68</v>
@@ -4817,25 +4817,25 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" t="s">
         <v>300</v>
       </c>
-      <c r="D67" t="s">
-        <v>301</v>
-      </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F67" t="s">
         <v>89</v>
       </c>
       <c r="G67" t="s">
+        <v>301</v>
+      </c>
+      <c r="J67" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" t="s">
         <v>302</v>
-      </c>
-      <c r="J67" t="s">
-        <v>394</v>
-      </c>
-      <c r="K67" t="s">
-        <v>303</v>
       </c>
       <c r="P67" t="s">
         <v>173</v>
@@ -4853,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="W67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
@@ -4864,25 +4864,25 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" t="s">
         <v>304</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>304</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E68" t="s">
-        <v>305</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="J68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P68" t="s">
         <v>173</v>
@@ -4900,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -4911,28 +4911,28 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" t="s">
         <v>307</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E69" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" t="s">
         <v>309</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>310</v>
       </c>
-      <c r="K69" t="s">
+      <c r="Q69" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="T69" t="s">
         <v>32</v>
@@ -4944,7 +4944,7 @@
         <v>62</v>
       </c>
       <c r="W69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -4955,22 +4955,22 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" t="s">
         <v>314</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E70" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="S70" t="s">
         <v>316</v>
-      </c>
-      <c r="S70" t="s">
-        <v>317</v>
       </c>
       <c r="T70" t="s">
         <v>84</v>
@@ -4982,7 +4982,7 @@
         <v>84</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -4993,28 +4993,28 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" t="s">
         <v>319</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>319</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J71" t="s">
         <v>320</v>
       </c>
-      <c r="E71" t="s">
-        <v>320</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="S71" t="s">
         <v>316</v>
-      </c>
-      <c r="J71" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="S71" t="s">
-        <v>317</v>
       </c>
       <c r="T71" t="s">
         <v>32</v>
@@ -5026,7 +5026,7 @@
         <v>62</v>
       </c>
       <c r="W71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -5037,28 +5037,28 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" t="s">
         <v>324</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>324</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J72" t="s">
         <v>325</v>
       </c>
-      <c r="E72" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="S72" t="s">
         <v>316</v>
-      </c>
-      <c r="J72" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="S72" t="s">
-        <v>317</v>
       </c>
       <c r="T72" t="s">
         <v>32</v>
@@ -5070,7 +5070,7 @@
         <v>62</v>
       </c>
       <c r="W72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="165" x14ac:dyDescent="0.25">
@@ -5081,19 +5081,19 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
+        <v>326</v>
+      </c>
+      <c r="D73" t="s">
         <v>327</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>328</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
@@ -5119,25 +5119,25 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" t="s">
         <v>331</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>332</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="Q74" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T74" t="s">
         <v>84</v>
@@ -5149,7 +5149,7 @@
         <v>84</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -5160,25 +5160,25 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
+        <v>336</v>
+      </c>
+      <c r="D75" t="s">
         <v>337</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>338</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F75" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" t="s">
         <v>340</v>
       </c>
-      <c r="J75" t="s">
-        <v>341</v>
-      </c>
       <c r="Q75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T75" t="s">
         <v>84</v>
@@ -5201,19 +5201,19 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" t="s">
         <v>342</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>343</v>
       </c>
-      <c r="E76" t="s">
-        <v>344</v>
-      </c>
       <c r="F76" t="s">
         <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J76" t="s">
         <v>68</v>
@@ -5239,25 +5239,25 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" t="s">
         <v>345</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>346</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F77" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="J77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T77" t="s">
         <v>84</v>
@@ -5280,19 +5280,19 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" t="s">
         <v>349</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>350</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="J78" t="s">
         <v>68</v>
@@ -5318,22 +5318,22 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" t="s">
         <v>353</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>353</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E79" t="s">
-        <v>354</v>
-      </c>
-      <c r="F79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="T79" t="s">
         <v>84</v>
@@ -5356,13 +5356,13 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" t="s">
         <v>357</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>358</v>
-      </c>
-      <c r="E80" t="s">
-        <v>359</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5394,13 +5394,13 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" t="s">
         <v>360</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>361</v>
-      </c>
-      <c r="E81" t="s">
-        <v>362</v>
       </c>
       <c r="F81" t="s">
         <v>48</v>
@@ -5409,10 +5409,10 @@
         <v>250</v>
       </c>
       <c r="J81" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q81" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="T81" t="s">
         <v>32</v>
@@ -5435,13 +5435,13 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
+        <v>364</v>
+      </c>
+      <c r="D82" t="s">
         <v>365</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>366</v>
-      </c>
-      <c r="E82" t="s">
-        <v>367</v>
       </c>
       <c r="F82" t="s">
         <v>48</v>
@@ -5450,10 +5450,10 @@
         <v>250</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T82" t="s">
         <v>32</v>
@@ -5465,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -5476,13 +5476,13 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" t="s">
         <v>368</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>369</v>
-      </c>
-      <c r="E83" t="s">
-        <v>370</v>
       </c>
       <c r="F83" t="s">
         <v>48</v>
@@ -5511,19 +5511,19 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" t="s">
         <v>371</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>372</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
         <v>373</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s">
-        <v>374</v>
       </c>
       <c r="J84" t="s">
         <v>68</v>
@@ -5543,5 +5543,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Boulot\ProPASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C925B62A-57E8-47E0-8134-47971F700EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740D591-3870-4BDF-A341-ABA9F762885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
@@ -1497,22 +1497,10 @@
     <t>HDL_CHOL</t>
   </si>
   <si>
-    <t>CHOL/38.67</t>
-  </si>
-  <si>
-    <t>HDL_CHOL/38.67</t>
-  </si>
-  <si>
-    <t>TRIG/88.57</t>
-  </si>
-  <si>
     <t>LDL_CALC</t>
   </si>
   <si>
     <t>N_Cigarettes_Day</t>
-  </si>
-  <si>
-    <t>N_Cigarettes_Day/7</t>
   </si>
   <si>
     <t>Health_Perception</t>
@@ -1642,6 +1630,18 @@
 PHQ9_Moving_or_speaking;
 PHQ9_Thoughts_that_you
 </t>
+  </si>
+  <si>
+    <t>as.numeric(N_Cigarettes_Day)/7</t>
+  </si>
+  <si>
+    <t>as.numeric(TRIG)/88.57</t>
+  </si>
+  <si>
+    <t>as.numeric(HDL_CHOL)/38.67</t>
+  </si>
+  <si>
+    <t>as.numeric(CHOL)/38.67</t>
   </si>
 </sst>
 </file>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J54" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K11" t="s">
         <v>94</v>
@@ -2521,7 +2521,7 @@
         <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K35" t="s">
         <v>193</v>
@@ -3612,7 +3612,7 @@
         <v>51</v>
       </c>
       <c r="W36" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K47" t="s">
         <v>240</v>
@@ -4054,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
         <v>244</v>
@@ -4124,7 +4124,7 @@
         <v>250</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>251</v>
@@ -4142,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>250</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S50" t="s">
         <v>256</v>
@@ -4183,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>250</v>
       </c>
       <c r="J51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
         <v>258</v>
@@ -4291,7 +4291,7 @@
         <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s">
         <v>265</v>
@@ -4373,7 +4373,7 @@
         <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s">
         <v>271</v>
@@ -4417,7 +4417,7 @@
         <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K56" t="s">
         <v>274</v>
@@ -4461,7 +4461,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s">
         <v>277</v>
@@ -4505,7 +4505,7 @@
         <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K58" t="s">
         <v>281</v>
@@ -4686,7 +4686,7 @@
         <v>48</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="T63" t="s">
         <v>32</v>
@@ -4698,7 +4698,7 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>301</v>
       </c>
       <c r="J67" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K67" t="s">
         <v>302</v>
@@ -4853,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="W67" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
@@ -4879,7 +4879,7 @@
         <v>305</v>
       </c>
       <c r="J68" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K68" t="s">
         <v>302</v>
@@ -4900,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>250</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>363</v>
@@ -5465,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">

--- a/data_processing_elements-KSA.xlsx
+++ b/data_processing_elements-KSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740D591-3870-4BDF-A341-ABA9F762885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B66B09-B872-4934-94D5-D66893D20C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61CF0716-E47C-4322-AF00-25CE3B72351E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>operation</t>
-  </si>
-  <si>
-    <t>format(as.Date(Date_of_participation, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
   </si>
   <si>
     <t>sdc_sex</t>
@@ -1643,6 +1640,9 @@
   <si>
     <t>as.numeric(CHOL)/38.67</t>
   </si>
+  <si>
+    <t>format(as.Date(Date_of_participation, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
+  </si>
 </sst>
 </file>
 
@@ -1700,7 +1700,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2018,20 +2018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95823C6-700A-48B1-B043-8AB16BFC9FF7}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="9" max="9" width="76.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="17" max="17" width="69.28515625" customWidth="1"/>
-    <col min="23" max="23" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.453125" customWidth="1"/>
+    <col min="10" max="10" width="34.81640625" customWidth="1"/>
+    <col min="17" max="17" width="69.26953125" customWidth="1"/>
+    <col min="23" max="23" width="94.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2184,10 +2184,10 @@
         <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2195,28 +2195,28 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -2225,13 +2225,13 @@
         <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2239,25 +2239,25 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
@@ -2269,13 +2269,13 @@
         <v>33</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2283,28 +2283,28 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -2313,13 +2313,13 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" t="s">
         <v>62</v>
       </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2327,25 +2327,25 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" t="s">
+      <c r="S7" t="s">
         <v>68</v>
-      </c>
-      <c r="S7" t="s">
-        <v>69</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -2354,13 +2354,13 @@
         <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2368,28 +2368,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="J8" t="s">
-        <v>374</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -2398,13 +2398,13 @@
         <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2412,43 +2412,43 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="T9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" t="s">
         <v>84</v>
       </c>
-      <c r="U9" t="s">
-        <v>85</v>
-      </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2456,34 +2456,34 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" t="s">
-        <v>90</v>
-      </c>
       <c r="U10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2491,25 +2491,25 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -2518,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2532,28 +2532,28 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>98</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="J12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -2562,13 +2562,13 @@
         <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2576,28 +2576,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>103</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>106</v>
       </c>
-      <c r="K13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -2606,13 +2606,13 @@
         <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2620,28 +2620,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>111</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
         <v>106</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -2650,13 +2650,13 @@
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2664,28 +2664,28 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
         <v>117</v>
       </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
@@ -2694,13 +2694,13 @@
         <v>33</v>
       </c>
       <c r="V15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2708,25 +2708,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>122</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
@@ -2744,10 +2744,10 @@
         <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2755,22 +2755,22 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T17" t="s">
         <v>32</v>
@@ -2782,10 +2782,10 @@
         <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2793,28 +2793,28 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
         <v>131</v>
       </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>132</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" t="s">
         <v>133</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" t="s">
-        <v>134</v>
       </c>
       <c r="Q18" t="s">
         <v>31</v>
@@ -2826,13 +2826,13 @@
         <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2840,22 +2840,22 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
         <v>32</v>
@@ -2867,10 +2867,10 @@
         <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2878,28 +2878,28 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
         <v>138</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
         <v>139</v>
       </c>
-      <c r="E20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>140</v>
       </c>
-      <c r="J20" t="s">
-        <v>141</v>
-      </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
@@ -2911,13 +2911,13 @@
         <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2925,25 +2925,25 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
         <v>142</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" t="s">
+      <c r="K21" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21" t="s">
-        <v>144</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
@@ -2958,13 +2958,13 @@
         <v>33</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2972,22 +2972,22 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
         <v>145</v>
       </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T22" t="s">
         <v>32</v>
@@ -2999,10 +2999,10 @@
         <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3010,72 +3010,72 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="E23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" t="s">
         <v>149</v>
       </c>
-      <c r="J23" t="s">
-        <v>68</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>150</v>
       </c>
-      <c r="V23" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" t="s">
-        <v>152</v>
-      </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3083,25 +3083,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
         <v>153</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>154</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
         <v>155</v>
       </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>156</v>
       </c>
-      <c r="J25" t="s">
-        <v>157</v>
-      </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
@@ -3116,13 +3116,13 @@
         <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3130,25 +3130,25 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
         <v>160</v>
       </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" t="s">
-        <v>161</v>
-      </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
@@ -3163,13 +3163,13 @@
         <v>33</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3177,25 +3177,25 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
         <v>162</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
         <v>163</v>
       </c>
-      <c r="E27" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>164</v>
       </c>
-      <c r="J27" t="s">
-        <v>165</v>
-      </c>
       <c r="K27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
@@ -3210,13 +3210,13 @@
         <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3224,37 +3224,37 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
         <v>166</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" t="s">
-        <v>168</v>
-      </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3262,31 +3262,31 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
         <v>169</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" t="s">
+        <v>376</v>
+      </c>
+      <c r="K29" t="s">
         <v>171</v>
       </c>
-      <c r="J29" t="s">
-        <v>377</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="P29" t="s">
         <v>172</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>174</v>
       </c>
       <c r="T29" t="s">
         <v>32</v>
@@ -3295,13 +3295,13 @@
         <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3309,37 +3309,37 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
         <v>175</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
         <v>176</v>
       </c>
-      <c r="E30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s">
-        <v>177</v>
-      </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3347,37 +3347,37 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
         <v>178</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
         <v>179</v>
       </c>
-      <c r="E31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s">
-        <v>180</v>
-      </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3385,25 +3385,25 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
         <v>181</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
         <v>182</v>
       </c>
-      <c r="E32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>183</v>
       </c>
-      <c r="J32" t="s">
-        <v>184</v>
-      </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
@@ -3412,7 +3412,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T32" t="s">
         <v>32</v>
@@ -3424,10 +3424,10 @@
         <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3435,25 +3435,25 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" t="s">
+        <v>378</v>
+      </c>
+      <c r="K33" t="s">
         <v>187</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" t="s">
-        <v>379</v>
-      </c>
-      <c r="K33" t="s">
-        <v>188</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
@@ -3462,7 +3462,7 @@
         <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T33" t="s">
         <v>32</v>
@@ -3474,10 +3474,10 @@
         <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3485,37 +3485,37 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
         <v>189</v>
       </c>
-      <c r="D34" t="s">
-        <v>190</v>
-      </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3523,25 +3523,25 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
         <v>191</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" t="s">
+        <v>379</v>
+      </c>
+      <c r="K35" t="s">
         <v>192</v>
-      </c>
-      <c r="E35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" t="s">
-        <v>380</v>
-      </c>
-      <c r="K35" t="s">
-        <v>193</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
@@ -3550,7 +3550,7 @@
         <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T35" t="s">
         <v>32</v>
@@ -3559,13 +3559,13 @@
         <v>33</v>
       </c>
       <c r="V35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3573,25 +3573,25 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
         <v>194</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" t="s">
         <v>195</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K36" t="s">
         <v>195</v>
-      </c>
-      <c r="F36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K36" t="s">
-        <v>196</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
@@ -3600,7 +3600,7 @@
         <v>31</v>
       </c>
       <c r="R36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T36" t="s">
         <v>32</v>
@@ -3609,13 +3609,13 @@
         <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W36" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3623,37 +3623,37 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" t="s">
         <v>197</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
         <v>198</v>
       </c>
-      <c r="E37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s">
-        <v>199</v>
-      </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3661,37 +3661,37 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
         <v>200</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
         <v>202</v>
       </c>
-      <c r="F38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s">
-        <v>203</v>
-      </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3699,37 +3699,37 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>205</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T39" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" t="s">
         <v>84</v>
       </c>
-      <c r="U39" t="s">
-        <v>85</v>
-      </c>
       <c r="V39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3737,37 +3737,37 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
         <v>208</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>209</v>
       </c>
-      <c r="E40" t="s">
-        <v>210</v>
-      </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3775,37 +3775,37 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
         <v>211</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>212</v>
       </c>
-      <c r="E41" t="s">
-        <v>213</v>
-      </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T41" t="s">
+        <v>83</v>
+      </c>
+      <c r="U41" t="s">
         <v>84</v>
       </c>
-      <c r="U41" t="s">
-        <v>85</v>
-      </c>
       <c r="V41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3813,37 +3813,37 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" t="s">
         <v>214</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
         <v>215</v>
       </c>
-      <c r="E42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" t="s">
-        <v>216</v>
-      </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3851,40 +3851,40 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
         <v>217</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
         <v>219</v>
       </c>
-      <c r="F43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+      <c r="S43" t="s">
         <v>220</v>
       </c>
-      <c r="J43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S43" t="s">
-        <v>221</v>
-      </c>
       <c r="T43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3892,40 +3892,40 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
         <v>222</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3933,28 +3933,28 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s">
         <v>225</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>226</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" t="s">
         <v>228</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>229</v>
       </c>
-      <c r="K45" t="s">
+      <c r="Q45" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="T45" t="s">
         <v>32</v>
@@ -3963,13 +3963,13 @@
         <v>42</v>
       </c>
       <c r="V45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3977,28 +3977,28 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" t="s">
         <v>233</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="J46" t="s">
+        <v>228</v>
+      </c>
+      <c r="K46" t="s">
         <v>229</v>
       </c>
-      <c r="K46" t="s">
+      <c r="Q46" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="T46" t="s">
         <v>32</v>
@@ -4007,13 +4007,13 @@
         <v>42</v>
       </c>
       <c r="V46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4021,28 +4021,28 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
         <v>237</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
         <v>238</v>
       </c>
-      <c r="E47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
         <v>239</v>
       </c>
-      <c r="J47" t="s">
-        <v>381</v>
-      </c>
-      <c r="K47" t="s">
-        <v>240</v>
-      </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T47" t="s">
         <v>32</v>
@@ -4054,10 +4054,10 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4065,28 +4065,28 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" t="s">
         <v>241</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E48" t="s">
-        <v>242</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
         <v>243</v>
       </c>
-      <c r="J48" t="s">
-        <v>382</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="T48" t="s">
         <v>32</v>
@@ -4095,13 +4095,13 @@
         <v>42</v>
       </c>
       <c r="V48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4109,28 +4109,28 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" t="s">
         <v>247</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>248</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q49" s="1" t="s">
+      <c r="S49" t="s">
         <v>251</v>
-      </c>
-      <c r="S49" t="s">
-        <v>252</v>
       </c>
       <c r="T49" t="s">
         <v>32</v>
@@ -4139,13 +4139,13 @@
         <v>42</v>
       </c>
       <c r="V49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4153,25 +4153,25 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" t="s">
         <v>253</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>254</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="S50" t="s">
         <v>255</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S50" t="s">
-        <v>256</v>
       </c>
       <c r="T50" t="s">
         <v>32</v>
@@ -4180,13 +4180,13 @@
         <v>42</v>
       </c>
       <c r="V50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4194,28 +4194,28 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" t="s">
         <v>257</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E51" t="s">
-        <v>258</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J51" t="s">
-        <v>383</v>
-      </c>
-      <c r="K51" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="T51" t="s">
         <v>32</v>
@@ -4224,13 +4224,13 @@
         <v>42</v>
       </c>
       <c r="V51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4238,37 +4238,37 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" t="s">
         <v>261</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E52" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4276,28 +4276,28 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J53" t="s">
-        <v>384</v>
-      </c>
-      <c r="K53" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="T53" t="s">
         <v>32</v>
@@ -4306,13 +4306,13 @@
         <v>42</v>
       </c>
       <c r="V53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4320,37 +4320,37 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" t="s">
         <v>267</v>
       </c>
-      <c r="D54" t="s">
-        <v>268</v>
-      </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4358,28 +4358,28 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="s">
         <v>269</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
         <v>270</v>
       </c>
-      <c r="E55" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="J55" t="s">
-        <v>385</v>
-      </c>
-      <c r="K55" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="T55" t="s">
         <v>32</v>
@@ -4388,13 +4388,13 @@
         <v>42</v>
       </c>
       <c r="V55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W55" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4402,28 +4402,28 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" t="s">
         <v>272</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
         <v>273</v>
       </c>
-      <c r="E56" t="s">
-        <v>273</v>
-      </c>
-      <c r="F56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="J56" t="s">
-        <v>387</v>
-      </c>
-      <c r="K56" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="T56" t="s">
         <v>32</v>
@@ -4432,13 +4432,13 @@
         <v>42</v>
       </c>
       <c r="V56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4446,28 +4446,28 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" t="s">
         <v>275</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J57" t="s">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s">
         <v>276</v>
       </c>
-      <c r="E57" t="s">
-        <v>276</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="J57" t="s">
-        <v>386</v>
-      </c>
-      <c r="K57" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="T57" t="s">
         <v>32</v>
@@ -4476,13 +4476,13 @@
         <v>42</v>
       </c>
       <c r="V57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4490,43 +4490,43 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" t="s">
         <v>278</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>279</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J58" t="s">
+        <v>387</v>
+      </c>
+      <c r="K58" t="s">
         <v>280</v>
       </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J58" t="s">
-        <v>388</v>
-      </c>
-      <c r="K58" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="T58" t="s">
+        <v>83</v>
+      </c>
+      <c r="U58" t="s">
         <v>84</v>
       </c>
-      <c r="U58" t="s">
-        <v>85</v>
-      </c>
       <c r="V58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4534,34 +4534,34 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" t="s">
         <v>282</v>
       </c>
-      <c r="D59" t="s">
-        <v>283</v>
-      </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4569,34 +4569,34 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" t="s">
         <v>284</v>
       </c>
-      <c r="D60" t="s">
-        <v>285</v>
-      </c>
       <c r="E60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4604,34 +4604,34 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" t="s">
         <v>286</v>
       </c>
-      <c r="D61" t="s">
-        <v>287</v>
-      </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4639,34 +4639,34 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" t="s">
         <v>288</v>
       </c>
-      <c r="D62" t="s">
-        <v>289</v>
-      </c>
       <c r="E62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4674,19 +4674,19 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" t="s">
         <v>290</v>
       </c>
-      <c r="D63" t="s">
-        <v>291</v>
-      </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T63" t="s">
         <v>32</v>
@@ -4698,10 +4698,10 @@
         <v>43</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4709,34 +4709,34 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" t="s">
         <v>292</v>
       </c>
-      <c r="D64" t="s">
-        <v>293</v>
-      </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4744,34 +4744,34 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
         <v>294</v>
       </c>
-      <c r="D65" t="s">
-        <v>295</v>
-      </c>
       <c r="E65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4779,37 +4779,37 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" t="s">
         <v>296</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E66" t="s">
-        <v>297</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="J66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4817,31 +4817,31 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" t="s">
         <v>299</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
         <v>300</v>
       </c>
-      <c r="E67" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
+        <v>388</v>
+      </c>
+      <c r="K67" t="s">
         <v>301</v>
       </c>
-      <c r="J67" t="s">
-        <v>389</v>
-      </c>
-      <c r="K67" t="s">
-        <v>302</v>
-      </c>
       <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67" t="s">
         <v>173</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>174</v>
       </c>
       <c r="T67" t="s">
         <v>32</v>
@@ -4850,13 +4850,13 @@
         <v>42</v>
       </c>
       <c r="V67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="405" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4864,31 +4864,31 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" t="s">
         <v>303</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E68" t="s">
-        <v>304</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="J68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P68" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q68" t="s">
         <v>173</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>174</v>
       </c>
       <c r="T68" t="s">
         <v>32</v>
@@ -4897,13 +4897,13 @@
         <v>42</v>
       </c>
       <c r="V68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4911,28 +4911,28 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" t="s">
         <v>306</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E69" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" t="s">
         <v>308</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>309</v>
       </c>
-      <c r="K69" t="s">
+      <c r="Q69" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="T69" t="s">
         <v>32</v>
@@ -4941,13 +4941,13 @@
         <v>42</v>
       </c>
       <c r="V69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4955,37 +4955,37 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" t="s">
         <v>313</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E70" t="s">
-        <v>314</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="S70" t="s">
         <v>315</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s">
+        <v>149</v>
+      </c>
+      <c r="V70" t="s">
+        <v>83</v>
+      </c>
+      <c r="W70" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T70" t="s">
-        <v>84</v>
-      </c>
-      <c r="U70" t="s">
-        <v>150</v>
-      </c>
-      <c r="V70" t="s">
-        <v>84</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4993,28 +4993,28 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" t="s">
         <v>318</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J71" t="s">
         <v>319</v>
       </c>
-      <c r="E71" t="s">
-        <v>319</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S71" t="s">
         <v>315</v>
-      </c>
-      <c r="J71" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="S71" t="s">
-        <v>316</v>
       </c>
       <c r="T71" t="s">
         <v>32</v>
@@ -5023,13 +5023,13 @@
         <v>42</v>
       </c>
       <c r="V71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W71" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5037,28 +5037,28 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" t="s">
         <v>323</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>323</v>
+      </c>
+      <c r="F72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J72" t="s">
         <v>324</v>
       </c>
-      <c r="E72" t="s">
-        <v>324</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S72" t="s">
         <v>315</v>
-      </c>
-      <c r="J72" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="S72" t="s">
-        <v>316</v>
       </c>
       <c r="T72" t="s">
         <v>32</v>
@@ -5067,13 +5067,13 @@
         <v>42</v>
       </c>
       <c r="V72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W72" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5081,37 +5081,37 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" t="s">
         <v>326</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>327</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5119,40 +5119,40 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" t="s">
         <v>330</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>331</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T74" t="s">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s">
+        <v>149</v>
+      </c>
+      <c r="V74" t="s">
+        <v>83</v>
+      </c>
+      <c r="W74" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="T74" t="s">
-        <v>84</v>
-      </c>
-      <c r="U74" t="s">
-        <v>150</v>
-      </c>
-      <c r="V74" t="s">
-        <v>84</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5160,40 +5160,40 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" t="s">
         <v>336</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>337</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F75" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" t="s">
         <v>339</v>
       </c>
-      <c r="J75" t="s">
-        <v>340</v>
-      </c>
       <c r="Q75" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5201,37 +5201,37 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
+        <v>340</v>
+      </c>
+      <c r="D76" t="s">
         <v>341</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>342</v>
       </c>
-      <c r="E76" t="s">
-        <v>343</v>
-      </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5239,40 +5239,40 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" t="s">
         <v>344</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>345</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F77" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="J77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T77" t="s">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s">
         <v>84</v>
       </c>
-      <c r="U77" t="s">
-        <v>85</v>
-      </c>
       <c r="V77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5280,37 +5280,37 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" t="s">
         <v>348</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>349</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="J78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5318,37 +5318,37 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" t="s">
         <v>352</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E79" t="s">
-        <v>353</v>
-      </c>
-      <c r="F79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="T79" t="s">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s">
         <v>84</v>
       </c>
-      <c r="U79" t="s">
-        <v>85</v>
-      </c>
       <c r="V79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5356,37 +5356,37 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="D80" t="s">
         <v>356</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>357</v>
       </c>
-      <c r="E80" t="s">
-        <v>358</v>
-      </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5394,25 +5394,25 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
+        <v>358</v>
+      </c>
+      <c r="D81" t="s">
         <v>359</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>360</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J81" t="s">
         <v>361</v>
       </c>
-      <c r="F81" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="Q81" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="T81" t="s">
         <v>32</v>
@@ -5421,13 +5421,13 @@
         <v>42</v>
       </c>
       <c r="V81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W81" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5435,25 +5435,25 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D82" t="s">
         <v>364</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>365</v>
       </c>
-      <c r="E82" t="s">
-        <v>366</v>
-      </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T82" t="s">
         <v>32</v>
@@ -5462,13 +5462,13 @@
         <v>42</v>
       </c>
       <c r="V82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5476,69 +5476,69 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" t="s">
         <v>367</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>368</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>67</v>
+      </c>
+      <c r="T83" t="s">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s">
+        <v>149</v>
+      </c>
+      <c r="V83" t="s">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
         <v>369</v>
       </c>
-      <c r="F83" t="s">
-        <v>48</v>
-      </c>
-      <c r="J83" t="s">
-        <v>68</v>
-      </c>
-      <c r="T83" t="s">
-        <v>84</v>
-      </c>
-      <c r="U83" t="s">
-        <v>150</v>
-      </c>
-      <c r="V83" t="s">
-        <v>84</v>
-      </c>
-      <c r="W83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>370</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>371</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" t="s">
         <v>372</v>
       </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s">
-        <v>373</v>
-      </c>
       <c r="J84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
